--- a/Experiment 4/experiment4.xlsx
+++ b/Experiment 4/experiment4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lator\Documents\GitHub\IA-Gasolina\Experiment 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566B16CB-ED89-4311-B64A-7FB3C5164B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F496ED24-BB75-4949-8C75-71DABCC89299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34410" yWindow="4710" windowWidth="16913" windowHeight="8498" xr2:uid="{3A114B70-8D78-4423-BD01-93E493EDDFC2}"/>
+    <workbookView xWindow="12250" yWindow="9650" windowWidth="16910" windowHeight="8500" xr2:uid="{3A114B70-8D78-4423-BD01-93E493EDDFC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -60,9 +60,6 @@
     <t>Simulated Annealing</t>
   </si>
   <si>
-    <t>Simulated Annealing pero:   steps: 20000   i stiter: 20000</t>
-  </si>
-  <si>
     <t>Hill climbing vs default annealing</t>
   </si>
   <si>
@@ -84,7 +81,10 @@
     <t>Param. Experiment 3</t>
   </si>
   <si>
-    <t>Steps i stiter: 20.000</t>
+    <t>Simulated Annealing pero:   steps: 20000</t>
+  </si>
+  <si>
+    <t>Steps: 2000</t>
   </si>
 </sst>
 </file>
@@ -442,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F93638D-2B3F-4F78-BC0A-FD749422560B}">
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -781,7 +781,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -912,12 +912,12 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B39" t="s">
         <v>1</v>
@@ -926,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
         <v>3</v>
@@ -934,7 +934,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B40">
         <v>10</v>
@@ -951,7 +951,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B41">
         <v>20</v>
@@ -968,7 +968,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B42">
         <v>30</v>
@@ -985,7 +985,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B43">
         <v>40</v>
@@ -1002,7 +1002,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B44">
         <v>50</v>
@@ -1019,7 +1019,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B45">
         <v>60</v>
@@ -1036,7 +1036,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B46">
         <v>70</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B47">
         <v>80</v>
@@ -1070,7 +1070,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B48">
         <v>10</v>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B49">
         <v>20</v>
@@ -1104,7 +1104,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B50">
         <v>30</v>
@@ -1121,7 +1121,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B51">
         <v>40</v>
@@ -1138,7 +1138,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B52">
         <v>50</v>
@@ -1155,7 +1155,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B53">
         <v>60</v>
@@ -1172,7 +1172,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B54">
         <v>70</v>
@@ -1189,7 +1189,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B55">
         <v>80</v>
@@ -1206,12 +1206,12 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B61" t="s">
         <v>1</v>
@@ -1220,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
         <v>3</v>
@@ -1228,7 +1228,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B62">
         <v>10</v>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B63">
         <v>20</v>
@@ -1262,7 +1262,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B64">
         <v>30</v>
@@ -1279,7 +1279,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B65">
         <v>40</v>
@@ -1296,7 +1296,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B66">
         <v>50</v>
@@ -1313,7 +1313,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B67">
         <v>60</v>
@@ -1330,7 +1330,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B68">
         <v>70</v>
@@ -1347,7 +1347,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B69">
         <v>80</v>
